--- a/Fake Folder copy/Fab/Projects/War Chest 2018/R/Forecasts for 2018 - 09 - Sep onwards/Kitting War Chest 2018 Forecasts for 2018-09 to 2019-02 .xlsx
+++ b/Fake Folder copy/Fab/Projects/War Chest 2018/R/Forecasts for 2018 - 09 - Sep onwards/Kitting War Chest 2018 Forecasts for 2018-09 to 2019-02 .xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarad/fake_folder/Fab/Projects/War Chest 2018/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarad/Fake Folder/Fab/Projects/War Chest 2018/R/Forecasts for 2018-09 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF82E5D5-A1E7-4349-AA06-2BF5D4B7CB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300C895A-55FF-DF4B-B09E-8B26CCFC6353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26200" windowHeight="21900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26200" windowHeight="16240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Summaries" sheetId="1" r:id="rId1"/>
     <sheet name="01 - key" sheetId="2" r:id="rId2"/>
     <sheet name="02 - high" sheetId="3" r:id="rId3"/>
-    <sheet name="03 - medium" sheetId="4" r:id="rId4"/>
+    <sheet name="03 - med" sheetId="4" r:id="rId4"/>
     <sheet name="04 - low" sheetId="5" r:id="rId5"/>
     <sheet name="05 - not enough data" sheetId="6" r:id="rId6"/>
     <sheet name="Parts Used" sheetId="7" r:id="rId7"/>
@@ -20749,7 +20749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -62848,7 +62848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
